--- a/meta/program/BlancoRestGeneratorResourceBundle.xlsx
+++ b/meta/program/BlancoRestGeneratorResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGenerator/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2575D2A2-75B4-9B4F-8D6C-37F2F662054E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93484E65-D88B-754A-B756-D2C9B2A832E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="1120" windowWidth="25520" windowHeight="12280" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="153">
   <si>
     <t>リソースバンドル定義書</t>
   </si>
@@ -741,6 +741,104 @@
   <si>
     <t>blancovalueobjectts-common</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>META2XML.PROCESS_IMPLEMENTS</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blancotelegramprocess-implements</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>META2XML.PROCESS_IMPORT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blancotelegramprocess-import</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>META2XML.PROCESS_HEADER</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blancotelegramprocess-header</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>META2XML.TELEGRAM_IMPLEMENTS</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blancotelegram-implements</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>META2XML.TELEGRAM_IMPORT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blancotelegram-import</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>META2XML.TELEGRAM_HEADER</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blancotelegram-header</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>META2XML_PROCESS_LIST</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blancotelegramprocess-list</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.ERR007</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] フィールド[{1}]の「最大値」が数値ではありません。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t xml:space="preserve">サイダイチ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">スウチ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.ERR008</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] フィールド[{1}]の「最小値」が数値ではありません。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">サイショウ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.ERR009</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] フィールド[{1}]の「デフォルト値」がセットされていません。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -817,7 +915,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1071,21 +1169,6 @@
       </top>
       <bottom style="thin">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1211,34 +1294,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1649,10 +1734,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1774,13 +1859,13 @@
       <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="43" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="18"/>
@@ -1791,9 +1876,9 @@
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -1832,7 +1917,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="22">
-        <f t="shared" ref="A17:A26" si="0">A16+1</f>
+        <f t="shared" ref="A17:A80" si="0">A16+1</f>
         <v>3</v>
       </c>
       <c r="B17" s="23"/>
@@ -1988,7 +2073,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="22">
-        <f t="shared" ref="A27:A93" si="1">A26+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B27" s="23" t="s">
@@ -2006,7 +2091,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -2024,7 +2109,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B29" s="23" t="s">
@@ -2042,7 +2127,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B30" s="23" t="s">
@@ -2058,337 +2143,339 @@
       <c r="H30" s="26"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" s="48" customFormat="1">
       <c r="A31" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B31" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="47"/>
+    </row>
+    <row r="32" spans="1:9" s="48" customFormat="1">
+      <c r="A32" s="22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
+    </row>
+    <row r="33" spans="1:9" s="48" customFormat="1">
+      <c r="A33" s="22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="47"/>
+    </row>
+    <row r="34" spans="1:9" s="48" customFormat="1">
+      <c r="A34" s="22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C34" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="17"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="22">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B32" s="23" t="s">
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B35" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C35" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="17"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="22">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B33" s="23" t="s">
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C36" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="17"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="22">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B34" s="23" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" s="48" customFormat="1">
+      <c r="A37" s="22">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="47"/>
+    </row>
+    <row r="38" spans="1:9" s="48" customFormat="1">
+      <c r="A38" s="22">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="47"/>
+    </row>
+    <row r="39" spans="1:9" s="48" customFormat="1">
+      <c r="A39" s="22">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="47"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="22">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="22">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B41" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C41" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="1:9" s="42" customFormat="1">
-      <c r="A35" s="37">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B35" s="38" t="s">
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:9" s="39" customFormat="1">
+      <c r="A42" s="22">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B42" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C42" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="41"/>
-    </row>
-    <row r="36" spans="1:9" s="42" customFormat="1">
-      <c r="A36" s="37">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B36" s="38" t="s">
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="38"/>
+    </row>
+    <row r="43" spans="1:9" s="39" customFormat="1">
+      <c r="A43" s="22">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B43" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C43" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
-    </row>
-    <row r="37" spans="1:9" s="42" customFormat="1">
-      <c r="A37" s="37">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B37" s="38" t="s">
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="38"/>
+    </row>
+    <row r="44" spans="1:9" s="39" customFormat="1">
+      <c r="A44" s="22">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B44" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C44" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="41"/>
-    </row>
-    <row r="38" spans="1:9" s="42" customFormat="1">
-      <c r="A38" s="37">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B38" s="38" t="s">
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="38"/>
+    </row>
+    <row r="45" spans="1:9" s="39" customFormat="1">
+      <c r="A45" s="22">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B45" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C45" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="41"/>
-    </row>
-    <row r="39" spans="1:9" s="42" customFormat="1">
-      <c r="A39" s="37">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B39" s="38" t="s">
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
+    </row>
+    <row r="46" spans="1:9" s="39" customFormat="1">
+      <c r="A46" s="22">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B46" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C46" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41"/>
-    </row>
-    <row r="40" spans="1:9" s="42" customFormat="1">
-      <c r="A40" s="37">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B40" s="38" t="s">
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38"/>
+    </row>
+    <row r="47" spans="1:9" s="39" customFormat="1">
+      <c r="A47" s="22">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B47" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C47" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41"/>
-    </row>
-    <row r="41" spans="1:9" s="42" customFormat="1">
-      <c r="A41" s="37">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B41" s="38" t="s">
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+    </row>
+    <row r="48" spans="1:9" s="39" customFormat="1">
+      <c r="A48" s="22">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B48" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C48" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="41"/>
-    </row>
-    <row r="42" spans="1:9" s="42" customFormat="1">
-      <c r="A42" s="37">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B42" s="38" t="s">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="38"/>
+    </row>
+    <row r="49" spans="1:9" s="39" customFormat="1">
+      <c r="A49" s="22">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B49" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C49" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="37">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="17"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="37">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="37">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="17"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="37">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="17"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="37">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="17"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="37">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="17"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="37">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="17"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="41"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="37">
-        <f t="shared" si="1"/>
+      <c r="A50" s="22">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
@@ -2397,12 +2484,14 @@
       <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="37">
-        <f t="shared" si="1"/>
+      <c r="A51" s="22">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
+      <c r="C51" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
@@ -2411,15 +2500,15 @@
       <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="37">
-        <f t="shared" si="1"/>
+      <c r="A52" s="22">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
@@ -2429,15 +2518,15 @@
       <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="37">
-        <f t="shared" si="1"/>
+      <c r="A53" s="22">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -2447,15 +2536,15 @@
       <c r="I53" s="17"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="37">
-        <f t="shared" si="1"/>
+      <c r="A54" s="22">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -2465,12 +2554,16 @@
       <c r="I54" s="17"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="37">
-        <f t="shared" si="1"/>
+      <c r="A55" s="22">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
+      <c r="B55" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
@@ -2479,15 +2572,15 @@
       <c r="I55" s="17"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="37">
-        <f t="shared" si="1"/>
+      <c r="A56" s="22">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
@@ -2497,15 +2590,15 @@
       <c r="I56" s="17"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="37">
-        <f t="shared" si="1"/>
+      <c r="A57" s="22">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
@@ -2514,67 +2607,67 @@
       <c r="H57" s="26"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="37">
-        <f t="shared" si="1"/>
+    <row r="58" spans="1:9" s="48" customFormat="1">
+      <c r="A58" s="22">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="47"/>
+    </row>
+    <row r="59" spans="1:9" s="48" customFormat="1">
+      <c r="A59" s="22">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="17"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="37">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="17"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="37">
-        <f t="shared" si="1"/>
+      <c r="B59" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="47"/>
+    </row>
+    <row r="60" spans="1:9" s="48" customFormat="1">
+      <c r="A60" s="22">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="17"/>
+        <v>151</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="47"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="37">
-        <f t="shared" si="1"/>
+      <c r="A61" s="22">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>42</v>
-      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
@@ -2583,15 +2676,15 @@
       <c r="I61" s="17"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="37">
-        <f t="shared" si="1"/>
+      <c r="A62" s="22">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
@@ -2601,15 +2694,15 @@
       <c r="I62" s="17"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="37">
-        <f t="shared" si="1"/>
+      <c r="A63" s="22">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
@@ -2619,12 +2712,16 @@
       <c r="I63" s="17"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="37">
-        <f t="shared" si="1"/>
+      <c r="A64" s="22">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="27"/>
+      <c r="B64" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
@@ -2633,16 +2730,12 @@
       <c r="I64" s="17"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="37">
-        <f t="shared" si="1"/>
+      <c r="A65" s="22">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>86</v>
-      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
@@ -2651,15 +2744,15 @@
       <c r="I65" s="17"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="37">
-        <f t="shared" si="1"/>
+      <c r="A66" s="22">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="D66" s="25"/>
       <c r="E66" s="25"/>
@@ -2669,15 +2762,15 @@
       <c r="I66" s="17"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="37">
-        <f t="shared" si="1"/>
+      <c r="A67" s="22">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
@@ -2687,15 +2780,15 @@
       <c r="I67" s="17"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="37">
-        <f t="shared" si="1"/>
+      <c r="A68" s="22">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>87</v>
+        <v>40</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
@@ -2705,8 +2798,8 @@
       <c r="I68" s="17"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="37">
-        <f t="shared" si="1"/>
+      <c r="A69" s="22">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B69" s="23"/>
@@ -2719,15 +2812,15 @@
       <c r="I69" s="17"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="37">
-        <f t="shared" si="1"/>
+      <c r="A70" s="22">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
@@ -2737,268 +2830,440 @@
       <c r="I70" s="17"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="37">
-        <f t="shared" si="1"/>
+      <c r="A71" s="22">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="32"/>
+      <c r="B71" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="17"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="37">
-        <f t="shared" si="1"/>
+      <c r="A72" s="22">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="17"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="22">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="17"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="22">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="17"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="22">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="17"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="22">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="22">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="17"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="22">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="B78" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="17"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="22">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="37">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="B79" s="23"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="17"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="22">
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="37">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="B80" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="17"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="22">
+        <f t="shared" ref="A81:A103" si="1">A80+1</f>
         <v>67</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="37">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="37">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="37">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="37">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="37">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="37">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="37">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="37">
+      <c r="B81" s="28"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="32"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="22">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="37">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="22">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="37">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="22">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="37">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="22">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="37">
+      <c r="B85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="22">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="22">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="37">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="22">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="37">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="22">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="37">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="22">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="37">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="22">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="37">
+      <c r="B91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="22">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="37">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="22">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="22">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="22">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="22">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="22">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="22">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="22">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="22">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="22">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="22">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="22">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3010,7 +3275,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D89:D90 D92:D93" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D99:D100 D102:D103" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
